--- a/Dokumen/IF2111_TB_11.xlsx
+++ b/Dokumen/IF2111_TB_11.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus-Pc\Desktop\program_c\tubes\hasil\catur\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus-Pc\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Identitas" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,12 @@
     <sheet name="Demo" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="170">
   <si>
     <t>BAGIAN I. SOURCE CODE</t>
   </si>
@@ -514,6 +515,24 @@
   </si>
   <si>
     <t>K-01</t>
+  </si>
+  <si>
+    <t>dibuat</t>
+  </si>
+  <si>
+    <t>Ian</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>Adi</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Kevin, Ian</t>
   </si>
 </sst>
 </file>
@@ -1351,9 +1370,7 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -29454,7 +29471,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:A32"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -29731,14 +29748,22 @@
       <c r="B9" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
+      <c r="C9" s="61" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" s="61" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" s="61" t="s">
+        <v>168</v>
+      </c>
       <c r="F9" s="64"/>
       <c r="G9" s="29">
         <v>0.2</v>
       </c>
-      <c r="H9" s="62"/>
+      <c r="H9" s="62">
+        <v>4</v>
+      </c>
       <c r="I9" s="65"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -29765,14 +29790,22 @@
       <c r="B10" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
+      <c r="C10" s="61" t="s">
+        <v>164</v>
+      </c>
+      <c r="D10" s="61" t="s">
+        <v>166</v>
+      </c>
+      <c r="E10" s="61" t="s">
+        <v>168</v>
+      </c>
       <c r="F10" s="64"/>
       <c r="G10" s="29">
         <v>0.15</v>
       </c>
-      <c r="H10" s="62"/>
+      <c r="H10" s="62">
+        <v>4</v>
+      </c>
       <c r="I10" s="65"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -29799,14 +29832,22 @@
       <c r="B11" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
+      <c r="C11" s="61" t="s">
+        <v>164</v>
+      </c>
+      <c r="D11" s="61" t="s">
+        <v>165</v>
+      </c>
+      <c r="E11" s="61" t="s">
+        <v>168</v>
+      </c>
       <c r="F11" s="64"/>
       <c r="G11" s="29">
         <v>0.1</v>
       </c>
-      <c r="H11" s="62"/>
+      <c r="H11" s="62">
+        <v>4</v>
+      </c>
       <c r="I11" s="65"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -29833,14 +29874,22 @@
       <c r="B12" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
+      <c r="C12" s="61" t="s">
+        <v>164</v>
+      </c>
+      <c r="D12" s="61" t="s">
+        <v>166</v>
+      </c>
+      <c r="E12" s="61" t="s">
+        <v>168</v>
+      </c>
       <c r="F12" s="64"/>
       <c r="G12" s="29">
         <v>0.125</v>
       </c>
-      <c r="H12" s="62"/>
+      <c r="H12" s="62">
+        <v>4</v>
+      </c>
       <c r="I12" s="65"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -29867,14 +29916,22 @@
       <c r="B13" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
+      <c r="C13" s="61" t="s">
+        <v>164</v>
+      </c>
+      <c r="D13" s="61" t="s">
+        <v>167</v>
+      </c>
+      <c r="E13" s="61" t="s">
+        <v>168</v>
+      </c>
       <c r="F13" s="64"/>
       <c r="G13" s="29">
         <v>0.125</v>
       </c>
-      <c r="H13" s="62"/>
+      <c r="H13" s="62">
+        <v>4</v>
+      </c>
       <c r="I13" s="65"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
@@ -29901,14 +29958,22 @@
       <c r="B14" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
+      <c r="C14" s="61" t="s">
+        <v>164</v>
+      </c>
+      <c r="D14" s="61" t="s">
+        <v>169</v>
+      </c>
+      <c r="E14" s="61" t="s">
+        <v>168</v>
+      </c>
       <c r="F14" s="64"/>
       <c r="G14" s="29">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="H14" s="62"/>
+      <c r="H14" s="62">
+        <v>4</v>
+      </c>
       <c r="I14" s="65"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -29935,14 +30000,22 @@
       <c r="B15" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
+      <c r="C15" s="61" t="s">
+        <v>164</v>
+      </c>
+      <c r="D15" s="61" t="s">
+        <v>167</v>
+      </c>
+      <c r="E15" s="61" t="s">
+        <v>168</v>
+      </c>
       <c r="F15" s="64"/>
       <c r="G15" s="29">
         <v>0.25</v>
       </c>
-      <c r="H15" s="62"/>
+      <c r="H15" s="62">
+        <v>4</v>
+      </c>
       <c r="I15" s="65"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
@@ -29977,7 +30050,7 @@
       </c>
       <c r="H16" s="63">
         <f>SUMPRODUCT(H9:H15,G9:G15)</f>
-        <v>0</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I16" s="63">
         <f>SUMPRODUCT(I9:I15,G9:G15)</f>
@@ -57629,8 +57702,8 @@
   </sheetPr>
   <dimension ref="A1:E1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="71" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35:D41"/>
+    <sheetView topLeftCell="A2" zoomScale="86" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -57771,7 +57844,9 @@
       <c r="C13" s="31">
         <v>0.2</v>
       </c>
-      <c r="D13" s="67"/>
+      <c r="D13" s="67">
+        <v>4</v>
+      </c>
       <c r="E13" s="68"/>
     </row>
     <row r="14" spans="1:5" ht="28.5" customHeight="1">
@@ -57784,7 +57859,9 @@
       <c r="C14" s="31">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="D14" s="67"/>
+      <c r="D14" s="67">
+        <v>4</v>
+      </c>
       <c r="E14" s="68"/>
     </row>
     <row r="15" spans="1:5">
@@ -57797,7 +57874,9 @@
       <c r="C15" s="108">
         <v>0.2</v>
       </c>
-      <c r="D15" s="109"/>
+      <c r="D15" s="109">
+        <v>4</v>
+      </c>
       <c r="E15" s="110"/>
     </row>
     <row r="16" spans="1:5">
@@ -57846,7 +57925,9 @@
       <c r="C20" s="31">
         <v>0.1</v>
       </c>
-      <c r="D20" s="67"/>
+      <c r="D20" s="67">
+        <v>4</v>
+      </c>
       <c r="E20" s="68"/>
     </row>
     <row r="21" spans="1:5" ht="14.25" customHeight="1">
@@ -57860,7 +57941,7 @@
       </c>
       <c r="D21" s="17">
         <f>SUMPRODUCT(D8:D20,C8:C20)</f>
-        <v>2.0499999999999998</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E21" s="17">
         <f>SUMPRODUCT(E8:E20,C8:C20)</f>
@@ -58018,7 +58099,9 @@
       <c r="C35" s="108">
         <v>0.3</v>
       </c>
-      <c r="D35" s="105"/>
+      <c r="D35" s="105">
+        <v>4</v>
+      </c>
       <c r="E35" s="102"/>
     </row>
     <row r="36" spans="1:5" ht="14.25" customHeight="1">
@@ -58086,7 +58169,7 @@
       </c>
       <c r="D42" s="15">
         <f>SUMPRODUCT(D25:D41,C25:C41)</f>
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="E42" s="15">
         <f>SUMPRODUCT(E25:E41,C25:C41)</f>
@@ -58115,7 +58198,7 @@
       </c>
       <c r="B45" s="69">
         <f>0.8*D21+0.2*D42</f>
-        <v>2.06</v>
+        <v>3.94</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -64896,7 +64979,7 @@
   </sheetPr>
   <dimension ref="A1:Y990"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -65169,7 +65252,9 @@
       <c r="C18" s="80">
         <v>0.06</v>
       </c>
-      <c r="D18" s="74"/>
+      <c r="D18" s="74">
+        <v>4</v>
+      </c>
       <c r="E18" s="83"/>
       <c r="F18" s="87"/>
     </row>
@@ -65183,7 +65268,9 @@
       <c r="C19" s="80">
         <v>0.05</v>
       </c>
-      <c r="D19" s="74"/>
+      <c r="D19" s="74">
+        <v>4</v>
+      </c>
       <c r="E19" s="83"/>
       <c r="F19" s="87"/>
     </row>
@@ -65197,7 +65284,9 @@
       <c r="C20" s="80">
         <v>0.05</v>
       </c>
-      <c r="D20" s="74"/>
+      <c r="D20" s="74">
+        <v>4</v>
+      </c>
       <c r="E20" s="83"/>
       <c r="F20" s="87"/>
       <c r="G20" s="79"/>
@@ -65212,7 +65301,9 @@
       <c r="C21" s="80">
         <v>0.05</v>
       </c>
-      <c r="D21" s="74"/>
+      <c r="D21" s="74">
+        <v>4</v>
+      </c>
       <c r="E21" s="83"/>
       <c r="F21" s="87"/>
       <c r="G21" s="79"/>
@@ -65227,7 +65318,9 @@
       <c r="C22" s="80">
         <v>0.05</v>
       </c>
-      <c r="D22" s="74"/>
+      <c r="D22" s="74">
+        <v>4</v>
+      </c>
       <c r="E22" s="83"/>
       <c r="F22" s="87"/>
       <c r="G22" s="79"/>
@@ -65242,7 +65335,9 @@
       <c r="C23" s="80">
         <v>0.05</v>
       </c>
-      <c r="D23" s="74"/>
+      <c r="D23" s="74">
+        <v>4</v>
+      </c>
       <c r="E23" s="83"/>
       <c r="F23" s="87"/>
       <c r="G23"/>
@@ -65257,7 +65352,9 @@
       <c r="C24" s="80">
         <v>0.05</v>
       </c>
-      <c r="D24" s="74"/>
+      <c r="D24" s="74">
+        <v>4</v>
+      </c>
       <c r="E24" s="83"/>
       <c r="F24" s="87"/>
       <c r="G24" s="53"/>
@@ -65272,7 +65369,9 @@
       <c r="C25" s="80">
         <v>0.08</v>
       </c>
-      <c r="D25" s="74"/>
+      <c r="D25" s="74">
+        <v>4</v>
+      </c>
       <c r="E25" s="83"/>
       <c r="F25" s="87"/>
     </row>
@@ -65286,7 +65385,9 @@
       <c r="C26" s="80">
         <v>0.08</v>
       </c>
-      <c r="D26" s="74"/>
+      <c r="D26" s="74">
+        <v>4</v>
+      </c>
       <c r="E26" s="83"/>
       <c r="F26" s="87"/>
     </row>
@@ -65300,7 +65401,9 @@
       <c r="C27" s="80">
         <v>0.09</v>
       </c>
-      <c r="D27" s="74"/>
+      <c r="D27" s="74">
+        <v>4</v>
+      </c>
       <c r="E27" s="83"/>
       <c r="F27" s="87"/>
     </row>
@@ -65314,7 +65417,9 @@
       <c r="C28" s="80">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D28" s="74"/>
+      <c r="D28" s="74">
+        <v>4</v>
+      </c>
       <c r="E28" s="83"/>
       <c r="F28" s="87"/>
     </row>
@@ -65328,7 +65433,9 @@
       <c r="C29" s="80">
         <v>0.12</v>
       </c>
-      <c r="D29" s="74"/>
+      <c r="D29" s="74">
+        <v>4</v>
+      </c>
       <c r="E29" s="83"/>
       <c r="F29" s="87"/>
     </row>
@@ -65342,7 +65449,9 @@
       <c r="C30" s="80">
         <v>0.05</v>
       </c>
-      <c r="D30" s="74"/>
+      <c r="D30" s="74">
+        <v>4</v>
+      </c>
       <c r="E30" s="83"/>
       <c r="F30" s="87"/>
     </row>
@@ -65356,7 +65465,9 @@
       <c r="C31" s="80">
         <v>0.03</v>
       </c>
-      <c r="D31" s="74"/>
+      <c r="D31" s="74">
+        <v>4</v>
+      </c>
       <c r="E31" s="83"/>
       <c r="F31" s="87"/>
     </row>
@@ -65370,7 +65481,9 @@
       <c r="C32" s="80">
         <v>0.05</v>
       </c>
-      <c r="D32" s="74"/>
+      <c r="D32" s="74">
+        <v>4</v>
+      </c>
       <c r="E32" s="83"/>
       <c r="F32" s="87"/>
     </row>
@@ -65384,7 +65497,9 @@
       <c r="C33" s="80">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D33" s="74"/>
+      <c r="D33" s="74">
+        <v>4</v>
+      </c>
       <c r="E33" s="83"/>
       <c r="F33" s="87"/>
     </row>
@@ -65399,7 +65514,7 @@
       </c>
       <c r="D34" s="50">
         <f>SUMPRODUCT(C18:C33, D18:D33)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E34" s="84">
         <f>SUMPRODUCT(C18:C33,E18:E33)</f>
@@ -65457,7 +65572,9 @@
       <c r="C38" s="80">
         <v>0.02</v>
       </c>
-      <c r="D38" s="74"/>
+      <c r="D38" s="74">
+        <v>4</v>
+      </c>
       <c r="E38" s="75"/>
       <c r="F38" s="87"/>
     </row>
@@ -65471,7 +65588,9 @@
       <c r="C39" s="80">
         <v>0.04</v>
       </c>
-      <c r="D39" s="74"/>
+      <c r="D39" s="74">
+        <v>4</v>
+      </c>
       <c r="E39" s="75"/>
       <c r="F39" s="87"/>
     </row>
@@ -65485,7 +65604,9 @@
       <c r="C40" s="80">
         <v>0.02</v>
       </c>
-      <c r="D40" s="74"/>
+      <c r="D40" s="74">
+        <v>4</v>
+      </c>
       <c r="E40" s="75"/>
       <c r="F40" s="87"/>
     </row>
@@ -65499,7 +65620,9 @@
       <c r="C41" s="80">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="D41" s="74"/>
+      <c r="D41" s="74">
+        <v>4</v>
+      </c>
       <c r="E41" s="75"/>
       <c r="F41" s="87"/>
     </row>
@@ -65513,7 +65636,9 @@
       <c r="C42" s="80">
         <v>0.02</v>
       </c>
-      <c r="D42" s="74"/>
+      <c r="D42" s="74">
+        <v>4</v>
+      </c>
       <c r="E42" s="75"/>
       <c r="F42" s="87"/>
     </row>
@@ -65528,7 +65653,7 @@
       </c>
       <c r="D43" s="50">
         <f>SUMPRODUCT(C38:C42, D38:D42)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E43" s="50">
         <f>SUMPRODUCT(C38:C42, E38:E42)</f>
@@ -65571,7 +65696,7 @@
       </c>
       <c r="B47" s="77">
         <f>D34+D43</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
